--- a/biology/Zoologie/Tipula_indura/Tipula_indura.xlsx
+++ b/biology/Zoologie/Tipula_indura/Tipula_indura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tipula indura est une espèce fossile d'insectes diptères de la famille des Tipulidae, de la sous-famille des Tipulinae et du genre Tipula.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tipula indura est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2]. 
-Fossiles
-L'holotypes C49 ♀ de l'ère Cénozoïque, et de l'époque Éocène (38 à 33,9 Ma) fait partie de la collection du muséum d'histoire naturelle de Marseille, et vient de la formation de Célas dans le Gard[2]. Cet holotype est complété par un autre échantillon Ni50 venant du même gisement mais conservé au musée de Nimes[1].
-Étymologie
-L'épithète spécifique 'indura signifie en latin « dur ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipula indura est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,. 
 </t>
         </is>
       </c>
@@ -543,18 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[3],[note 1] : 
-« Insecte noirâtre, ailes claires, pattes longues et grêles. Tête allongée ; deux yeux à facettes de forme arrondie ; museau allongé ; antennes longues, pluriarticulées et verticillées, 3 mm ; palpes bien visibles. Cou net. Thorax ovale, suture transversale bien dessinée ; scutellum moyen ; abdomen en partie couché sur le côté, légèrement renflé, tergites plus foncés que sternites ; incisures bien marquées, on compte neuf segments ; extrémité tronquée, ♂. Pattes longues et grêles, finement velues. Ailes claires, nervation du g. Tipula. »[1].
-Dimensions
-La longueur totale est de 15,2 mm ; la tête a une longueur de 2 mm et une largeur de 2 mm, le thorax a une longueur de 3,2 mm et une largeur de 2 mm, l'abdomen a une longueur de 10 mm et une largeur de 3 mm, les ailes ont une longueur de 16,5 mm et une largeur de 4 mm, le fémur a une longueur de 10 mm, et le tibia a une longueur de 11,5 mm[1].
-Affinités
-« L'insecte appartient certainement au g. Tipula. On pourrait être tenté de considérer cet échantillon comme étant le ♂ de l'espèce précédente[note 2]. Nous devons pourtant signaler que dans T. indura la c. discoïdale est plus étroite et la praefura plus allongée que dans T. marioni. »[1].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotypes C49 ♀ de l'ère Cénozoïque, et de l'époque Éocène (38 à 33,9 Ma) fait partie de la collection du muséum d'histoire naturelle de Marseille, et vient de la formation de Célas dans le Gard. Cet holotype est complété par un autre échantillon Ni50 venant du même gisement mais conservé au musée de Nimes.
 </t>
         </is>
       </c>
@@ -580,13 +590,166 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique 'indura signifie en latin « dur ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tipula_indura</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tipula_indura</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Insecte noirâtre, ailes claires, pattes longues et grêles. Tête allongée ; deux yeux à facettes de forme arrondie ; museau allongé ; antennes longues, pluriarticulées et verticillées, 3 mm ; palpes bien visibles. Cou net. Thorax ovale, suture transversale bien dessinée ; scutellum moyen ; abdomen en partie couché sur le côté, légèrement renflé, tergites plus foncés que sternites ; incisures bien marquées, on compte neuf segments ; extrémité tronquée, ♂. Pattes longues et grêles, finement velues. Ailes claires, nervation du g. Tipula. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tipula_indura</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tipula_indura</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 15,2 mm ; la tête a une longueur de 2 mm et une largeur de 2 mm, le thorax a une longueur de 3,2 mm et une largeur de 2 mm, l'abdomen a une longueur de 10 mm et une largeur de 3 mm, les ailes ont une longueur de 16,5 mm et une largeur de 4 mm, le fémur a une longueur de 10 mm, et le tibia a une longueur de 11,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tipula_indura</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tipula_indura</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« L'insecte appartient certainement au g. Tipula. On pourrait être tenté de considérer cet échantillon comme étant le ♂ de l'espèce précédente[note 2]. Nous devons pourtant signaler que dans T. indura la c. discoïdale est plus étroite et la praefura plus allongée que dans T. marioni. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tipula_indura</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tipula_indura</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Les Tipules vivent dans les prairies, les marais, les bois humides. Un minimum d'humidité du sol est nécessaire au développement des larves. Ce genre est universellement répandu. »[3].
+« Les Tipules vivent dans les prairies, les marais, les bois humides. Un minimum d'humidité du sol est nécessaire au développement des larves. Ce genre est universellement répandu. ».
 </t>
         </is>
       </c>
